--- a/Doc/data.xlsx
+++ b/Doc/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1100" windowWidth="31060" windowHeight="19820"/>
+    <workbookView xWindow="10940" yWindow="1680" windowWidth="31060" windowHeight="19820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>R(objective function, Rij)</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Sigma</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -3355,1937 +3361,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/data.xlsx
+++ b/Doc/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="1680" windowWidth="31060" windowHeight="19820" activeTab="2"/>
+    <workbookView xWindow="2700" yWindow="1040" windowWidth="31060" windowHeight="19820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,21 @@
   <si>
     <t>Sigma</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>lookahead</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +140,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF9876AA"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,12 +172,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -449,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>23.99</v>
+        <v>11.0309605223133</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>4.5520501539971603</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -570,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>23.99</v>
+        <v>10.972529872499701</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>5.3594053537073503</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -635,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>23.99</v>
+        <v>9.5689080781366709</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>5.3101960079476802</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -700,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>23.99</v>
+        <v>10.621911560710201</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>4.3252234703892602</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -765,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>23.99</v>
+        <v>8.6847467512462497</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>4.2379953631167497</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -830,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>23.99</v>
+        <v>10.824184352078399</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>4.9967281039642897</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -886,25 +902,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E8" s="2">
-        <v>23.99</v>
+        <v>8.1273313855096792</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>5.9194879170321597</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="I8" s="2">
         <v>0.22</v>
@@ -960,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>23.99</v>
+        <v>9.1076919398435603</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>4.6807714533322704</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1025,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>23.99</v>
+        <v>8.1846855625246207</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>5.1705355019595602</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1090,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>23.99</v>
+        <v>8.3885271249433906</v>
       </c>
       <c r="F11" s="2">
-        <v>3</v>
+        <v>4.4476238789822702</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1155,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>23.99</v>
+        <v>11.2938313133092</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>5.5025341186113099</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1220,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>23.99</v>
+        <v>10.7793144919033</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>4.51019023091854</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1285,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>23.99</v>
+        <v>9.2683979202434408</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>5.0119141033302901</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1350,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>23.99</v>
+        <v>11.8008881953534</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>5.3981534453133699</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1415,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>23.99</v>
+        <v>8.1377843220116404</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>5.7818065050716001</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1480,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>23.99</v>
+        <v>9.7549774386255894</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>5.9185828504108899</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1545,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>23.99</v>
+        <v>9.52623382837203</v>
       </c>
       <c r="F18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1610,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>23.99</v>
+        <v>11.062067152596001</v>
       </c>
       <c r="F19" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1675,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>23.99</v>
+        <v>11.1807996045483</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
@@ -1740,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>23.99</v>
+        <v>8.7474904182175202</v>
       </c>
       <c r="F21" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1805,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>23.99</v>
+        <v>9.95905758315293</v>
       </c>
       <c r="F22" s="2">
-        <v>3</v>
+        <v>5.6814345119673302</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1870,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>23.99</v>
+        <v>9.7823448028435998</v>
       </c>
       <c r="F23" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1935,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>23.99</v>
+        <v>10.5852520404451</v>
       </c>
       <c r="F24" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -2000,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>23.99</v>
+        <v>10.8374593234323</v>
       </c>
       <c r="F25" s="2">
-        <v>3</v>
+        <v>4.4870499374499797</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -2065,16 +2081,16 @@
         <v>200</v>
       </c>
       <c r="E26" s="2">
-        <v>23.99</v>
+        <v>11.0187467279294</v>
       </c>
       <c r="F26" s="2">
-        <v>3</v>
+        <v>5.85852724637446</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>24</v>
+        <v>3224</v>
       </c>
       <c r="I26" s="2">
         <v>0.22</v>
@@ -2124,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2152,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2164,8 +2180,11 @@
       <c r="I1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2188,13 +2207,16 @@
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2217,13 +2239,16 @@
         <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2246,13 +2271,16 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2275,13 +2303,16 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2304,13 +2335,16 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2333,13 +2367,16 @@
         <v>0.5</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2362,13 +2399,16 @@
         <v>0.5</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2391,13 +2431,16 @@
         <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2420,13 +2463,16 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2449,13 +2495,16 @@
         <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2478,13 +2527,16 @@
         <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2507,13 +2559,16 @@
         <v>0.5</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2536,13 +2591,16 @@
         <v>0.5</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -2565,13 +2623,16 @@
         <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2594,13 +2655,16 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2623,13 +2687,16 @@
         <v>0.5</v>
       </c>
       <c r="H17">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2652,13 +2719,16 @@
         <v>0.5</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2681,13 +2751,16 @@
         <v>0.5</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2710,13 +2783,16 @@
         <v>0.5</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2739,13 +2815,16 @@
         <v>0.5</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2768,13 +2847,16 @@
         <v>0.5</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
@@ -2797,13 +2879,16 @@
         <v>0.5</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2826,13 +2911,16 @@
         <v>0.5</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11</v>
       </c>
@@ -2855,13 +2943,16 @@
         <v>0.5</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>12</v>
       </c>
@@ -2884,13 +2975,16 @@
         <v>0.5</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12</v>
       </c>
@@ -2913,13 +3007,16 @@
         <v>0.5</v>
       </c>
       <c r="H27">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13</v>
       </c>
@@ -2942,13 +3039,16 @@
         <v>0.5</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13</v>
       </c>
@@ -2971,13 +3071,16 @@
         <v>0.5</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14</v>
       </c>
@@ -3000,13 +3103,16 @@
         <v>0.5</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3029,13 +3135,16 @@
         <v>0.5</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>14</v>
       </c>
@@ -3058,13 +3167,16 @@
         <v>0.5</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>15</v>
       </c>
@@ -3087,13 +3199,16 @@
         <v>0.5</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>16</v>
       </c>
@@ -3116,13 +3231,16 @@
         <v>0.5</v>
       </c>
       <c r="H34">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>17</v>
       </c>
@@ -3145,13 +3263,16 @@
         <v>0.5</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17</v>
       </c>
@@ -3174,13 +3295,16 @@
         <v>0.5</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18</v>
       </c>
@@ -3203,13 +3327,16 @@
         <v>0.5</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>19</v>
       </c>
@@ -3232,13 +3359,16 @@
         <v>0.5</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20</v>
       </c>
@@ -3261,13 +3391,16 @@
         <v>0.5</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>22</v>
       </c>
@@ -3290,13 +3423,16 @@
         <v>0.5</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>23</v>
       </c>
@@ -3319,13 +3455,16 @@
         <v>0.5</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>24</v>
       </c>
@@ -3348,10 +3487,13 @@
         <v>0.5</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3361,10 +3503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3382,7 +3524,7 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3391,6 +3533,22 @@
       </c>
       <c r="B3">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3400,665 +3558,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H39" sqref="A1:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/data.xlsx
+++ b/Doc/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="480" windowWidth="31060" windowHeight="19820" activeTab="2"/>
+    <workbookView xWindow="9960" yWindow="1720" windowWidth="31060" windowHeight="19820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5">
         <v>11.030960520000001</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I2" s="5">
         <v>0.223606798</v>
@@ -1113,13 +1113,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>10.972529870000001</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="I3" s="5">
         <v>0.223606798</v>
@@ -1562,13 +1562,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5">
         <v>9.5689080779999998</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5">
         <v>0.223606798</v>
@@ -2029,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="5">
         <v>0.223606798</v>
@@ -2478,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="5">
         <v>0.223606798</v>
@@ -2909,13 +2909,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5">
         <v>10.824184349999999</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I7" s="5">
         <v>0.223606798</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="5">
         <v>0.223606798</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
         <v>9.1076919400000005</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="5">
         <v>0.223606798</v>
@@ -4705,13 +4705,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5">
         <v>8.3885271249999995</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I11" s="5">
         <v>0.223606798</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="5">
         <v>0.223606798</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
         <v>10.779314490000001</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="5">
         <v>0.223606798</v>
@@ -6501,13 +6501,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>11.800888199999999</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I15" s="5">
         <v>0.223606798</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="5">
         <v>0.223606798</v>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="5">
         <v>0.223606798</v>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="5">
         <v>0.223606798</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="5">
         <v>0.223606798</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="5">
         <v>0.223606798</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="5">
         <v>0.223606798</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="5">
         <v>0.223606798</v>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="5">
         <v>0.223606798</v>
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="5">
         <v>0.223606798</v>
@@ -11895,7 +11895,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13257,8 +13257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13268,7 +13268,7 @@
         <v>6</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -13276,7 +13276,7 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/Doc/data.xlsx
+++ b/Doc/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1720" windowWidth="31060" windowHeight="19820"/>
+    <workbookView xWindow="2540" yWindow="1100" windowWidth="31060" windowHeight="19820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>lookahead</t>
+  </si>
+  <si>
+    <t>runTimes</t>
+  </si>
+  <si>
+    <t>updateYt</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -13255,10 +13261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13301,6 +13307,22 @@
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
